--- a/benchmarkResults/Benchmark_Results.xlsx
+++ b/benchmarkResults/Benchmark_Results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lema\Documents\projects\SmartApplication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lema\Documents\projects\SmartApplication\benchmarkResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="36">
   <si>
     <t>Python/Flask: empty</t>
   </si>
@@ -126,16 +126,24 @@
   <si>
     <t>PMML-&gt;Java: large</t>
   </si>
+  <si>
+    <t>Time to initially load PMML</t>
+  </si>
+  <si>
+    <t>12s</t>
+  </si>
+  <si>
+    <t>98s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,12 +191,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -228,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -356,27 +358,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -451,343 +438,17 @@
     <xf numFmtId="164" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="25">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-      </border>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1330,7 +991,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1430,7 +1090,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1712,7 +1371,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1812,7 +1470,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2097,7 +1754,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2197,7 +1853,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7070,62 +6725,63 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:H16" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:H16" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="B3:H16"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Environment" dataDxfId="32"/>
-    <tableColumn id="2" name="Mean" dataDxfId="31"/>
-    <tableColumn id="3" name="Median" dataDxfId="30"/>
-    <tableColumn id="4" name="Min" dataDxfId="29"/>
-    <tableColumn id="5" name="Max" dataDxfId="28"/>
-    <tableColumn id="6" name="STD" dataDxfId="27"/>
-    <tableColumn id="7" name="Geomean" dataDxfId="26"/>
+    <tableColumn id="1" name="Environment" dataDxfId="22"/>
+    <tableColumn id="2" name="Mean" dataDxfId="21"/>
+    <tableColumn id="3" name="Median" dataDxfId="20"/>
+    <tableColumn id="4" name="Min" dataDxfId="19"/>
+    <tableColumn id="5" name="Max" dataDxfId="18"/>
+    <tableColumn id="6" name="STD" dataDxfId="17"/>
+    <tableColumn id="7" name="Geomean" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="K16:L21" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="K16:L21" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="K16:L21"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Environment" dataDxfId="21"/>
-    <tableColumn id="2" name="Mean" dataDxfId="20"/>
+    <tableColumn id="1" name="Environment" dataDxfId="11"/>
+    <tableColumn id="2" name="Mean" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:H16" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:H16" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8">
   <autoFilter ref="B3:H16"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Environment"/>
-    <tableColumn id="2" name="Mean" dataDxfId="16"/>
-    <tableColumn id="3" name="Median" dataDxfId="15"/>
-    <tableColumn id="4" name="Min" dataDxfId="14"/>
-    <tableColumn id="5" name="Max" dataDxfId="13"/>
-    <tableColumn id="6" name="STD" dataDxfId="12"/>
-    <tableColumn id="7" name="Geomean" dataDxfId="11"/>
+    <tableColumn id="2" name="Mean" dataDxfId="6"/>
+    <tableColumn id="3" name="Median" dataDxfId="5"/>
+    <tableColumn id="4" name="Min" dataDxfId="4"/>
+    <tableColumn id="5" name="Max" dataDxfId="3"/>
+    <tableColumn id="6" name="STD" dataDxfId="2"/>
+    <tableColumn id="7" name="Geomean" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:I5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9" headerRowBorderDxfId="10">
-  <autoFilter ref="B3:I5"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Environment" dataDxfId="7"/>
-    <tableColumn id="2" name="Mean" dataDxfId="6"/>
-    <tableColumn id="3" name="Median" dataDxfId="5"/>
-    <tableColumn id="4" name="90%-Quantil" dataDxfId="4"/>
-    <tableColumn id="5" name="99%-Quantil" dataDxfId="3"/>
-    <tableColumn id="6" name="Min" dataDxfId="2"/>
-    <tableColumn id="7" name="Max" dataDxfId="1"/>
-    <tableColumn id="8" name="STD" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:J5" totalsRowShown="0" headerRowCellStyle="Warning Text" dataCellStyle="Warning Text">
+  <autoFilter ref="B3:J5"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Environment" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Mean" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Median" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="90%-Quantil" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="99%-Quantil" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Min" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="Max" dataCellStyle="Normal"/>
+    <tableColumn id="8" name="STD" dataCellStyle="Normal"/>
+    <tableColumn id="9" name="Time to initially load PMML" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -8371,10 +8027,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I5"/>
+  <dimension ref="B2:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8384,89 +8040,99 @@
     <col min="4" max="4" width="11.26953125" customWidth="1"/>
     <col min="5" max="5" width="14.6328125" customWidth="1"/>
     <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="10" max="10" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" t="s">
         <v>18</v>
       </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="21" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4">
         <v>1.671</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4">
         <v>1.4159999999999999</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4">
         <v>2.3660000000000001</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4">
         <v>5.3319999999999999</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4">
         <v>0.85499999999999998</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4">
         <v>60.83</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4">
         <v>2.0249999999999999</v>
       </c>
+      <c r="J4" s="26" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5">
         <v>9.9359999999999999</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5">
         <v>8.7309999999999999</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5">
         <v>13.285</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5">
         <v>23.347999999999999</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5">
         <v>6.4409999999999998</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5">
         <v>67.638999999999996</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5">
         <v>3.7130000000000001</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarkResults/Benchmark_Results.xlsx
+++ b/benchmarkResults/Benchmark_Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
   <si>
     <t>Python/Flask: empty</t>
   </si>
@@ -91,9 +91,6 @@
     <t>Sequential Benchmarktest</t>
   </si>
   <si>
-    <t>Mean(empty)</t>
-  </si>
-  <si>
     <t>R/OpenCPU</t>
   </si>
   <si>
@@ -135,6 +132,27 @@
   <si>
     <t>98s</t>
   </si>
+  <si>
+    <t>Python/AzureML: empty</t>
+  </si>
+  <si>
+    <t>Python/AzureML: large</t>
+  </si>
+  <si>
+    <t>Python/AzureML: small</t>
+  </si>
+  <si>
+    <t>Median(empty)</t>
+  </si>
+  <si>
+    <t>Median(small)</t>
+  </si>
+  <si>
+    <t>Median(large)</t>
+  </si>
+  <si>
+    <t>Python/AzureML</t>
+  </si>
 </sst>
 </file>
 
@@ -143,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +209,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -213,12 +252,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -227,6 +260,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
   </fills>
@@ -363,16 +402,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -386,13 +419,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -401,46 +437,34 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -448,7 +472,58 @@
   </cellStyles>
   <dxfs count="25">
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -466,12 +541,11 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -485,84 +559,10 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -758,174 +758,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -974,7 +806,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Mean of</a:t>
+              <a:t>Median of</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -991,6 +823,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1036,7 +869,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mean(empty)</c:v>
+                  <c:v>Median(empty)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1090,6 +923,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1110,9 +944,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$3:$K$6</c:f>
+              <c:f>Sheet1!$K$3:$K$7</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>R/OpenCPU</c:v>
                 </c:pt>
@@ -1120,31 +954,37 @@
                   <c:v>R/Plumber</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Python/Flask</c:v>
+                  <c:v>R/MS ML Server</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>R/MS ML Server</c:v>
+                  <c:v>Python/AzureML</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Python/Flask</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$6</c:f>
+              <c:f>Sheet1!$L$3:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.158634</c:v>
+                  <c:v>0.15218100000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.105172</c:v>
+                  <c:v>0.10856300000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8806000000000002E-2</c:v>
+                  <c:v>8.0030000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4119999999999999E-2</c:v>
+                  <c:v>5.7003999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2001999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1354,7 +1194,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-CH"/>
-              <a:t>Mean of </a:t>
+              <a:t>Median of </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-CH" i="1"/>
@@ -1371,6 +1211,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1412,11 +1253,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$16</c:f>
+              <c:f>Sheet1!$L$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mean</c:v>
+                  <c:v>Median(small)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1470,6 +1311,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1490,47 +1332,53 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$17:$K$21</c:f>
+              <c:f>Sheet1!$K$21:$K$26</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>R/OpenCPU</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>R/ MS ML Server</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R/MS ML Server Realtime</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>R/Plumber</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>Python/AzureML</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Python/Flask</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>R/MS ML Server Realtime</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>R/ MS ML Server</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$17:$L$21</c:f>
+              <c:f>Sheet1!$L$21:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.61958500000000005</c:v>
+                  <c:v>0.56564000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11899800000000001</c:v>
+                  <c:v>0.514764</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7701E-2</c:v>
+                  <c:v>0.47325400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4301E-2</c:v>
+                  <c:v>0.12120400000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4004000000000001E-2</c:v>
+                  <c:v>6.4999000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1740,7 +1588,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-CH"/>
-              <a:t>Mean of </a:t>
+              <a:t>Median of </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-CH" i="1"/>
@@ -1754,6 +1602,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1795,11 +1644,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$32</c:f>
+              <c:f>Sheet1!$L$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mean</c:v>
+                  <c:v>Median(large)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1853,6 +1702,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1873,41 +1723,47 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$33:$K$36</c:f>
+              <c:f>Sheet1!$K$39:$K$43</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>R/OpenCPU: large</c:v>
+                  <c:v>R/MS ML Server Realtime</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>R/Plumber: large</c:v>
+                  <c:v>R/OpenCPU</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Python/Flask: large</c:v>
+                  <c:v>R/Plumber</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>R/MS ML Server Realtime: large</c:v>
+                  <c:v>Python/AzureML</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Python/Flask</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$33:$L$36</c:f>
+              <c:f>Sheet1!$L$39:$L$43</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.2265899999999998</c:v>
+                  <c:v>3.8856799999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29100100000000001</c:v>
+                  <c:v>2.0016400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6902999999999994E-2</c:v>
+                  <c:v>0.27936299999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4685000000000002E-2</c:v>
+                  <c:v>0.104528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6969000000000005E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2117,7 +1973,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Mean of</a:t>
+              <a:t>Median of</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -2190,7 +2046,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mean</c:v>
+                  <c:v>Median(empty)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2265,41 +2121,47 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$J$4:$J$7</c:f>
+              <c:f>Sheet2!$J$4:$J$8</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>R/OpenCPU: empty</c:v>
+                  <c:v>R/OpenCPU</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>R/Plumber: empty</c:v>
+                  <c:v>R/Plumber</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>R/MS ML Server: empty</c:v>
+                  <c:v>R/MS ML Server</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Python/Flask: empty</c:v>
+                  <c:v>Python/AzureML</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Python/Flask</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$K$4:$K$7</c:f>
+              <c:f>Sheet2!$K$4:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.70983200000000002</c:v>
+                  <c:v>0.33490399999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10483199999999999</c:v>
+                  <c:v>0.10803500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2598999999999998E-2</c:v>
+                  <c:v>7.8442999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1606999999999998E-2</c:v>
+                  <c:v>5.2540000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2979000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2511,7 +2373,7 @@
               <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Mean of </a:t>
+              <a:t>Median of </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="0" i="1" u="none" baseline="0">
@@ -2583,11 +2445,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$K$17</c:f>
+              <c:f>Sheet2!$K$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mean</c:v>
+                  <c:v>Median(small)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2662,47 +2524,53 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$J$18:$J$22</c:f>
+              <c:f>Sheet2!$J$20:$J$25</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>R/OpenCPU: small</c:v>
+                  <c:v>R/OpenCPU</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>R/Plumber: small</c:v>
+                  <c:v>R/ MS ML Server</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Python/Flask: small</c:v>
+                  <c:v>R/MS ML Server Realtime</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>R/ MS ML Server: small</c:v>
+                  <c:v>R/Plumber</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>R/MS ML Server Realtime: small</c:v>
+                  <c:v>Python/AzureML</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Python/Flask</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$K$18:$K$22</c:f>
+              <c:f>Sheet2!$K$20:$K$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.7734480000000001</c:v>
+                  <c:v>1.7262599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.155227</c:v>
+                  <c:v>1.0467329999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9299000000000003E-2</c:v>
+                  <c:v>1.041736</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2291000000000002E-2</c:v>
+                  <c:v>0.12024700000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3161999999999999E-2</c:v>
+                  <c:v>6.4864000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6996999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2914,7 +2782,7 @@
               <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Mean of </a:t>
+              <a:t>Median of </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="0" i="1" u="none" baseline="0">
@@ -2980,7 +2848,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mean</c:v>
+                  <c:v>Median(large)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3055,41 +2923,47 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$J$33:$J$36</c:f>
+              <c:f>Sheet2!$J$33:$J$37</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>R/OpenCPU: large</c:v>
+                  <c:v>R/MS ML Server Realtime</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>R/Plumber: large</c:v>
+                  <c:v>R/OpenCPU</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Python/Flask: large</c:v>
+                  <c:v>R/Plumber</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>R/MS ML Server Realtime: large</c:v>
+                  <c:v>Python/Flask</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Python/AzureML</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$K$33:$K$36</c:f>
+              <c:f>Sheet2!$K$33:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>13.874336</c:v>
+                  <c:v>11.183159</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.503034</c:v>
+                  <c:v>6.429964</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35960599999999998</c:v>
+                  <c:v>0.70960299999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3560000000000001E-2</c:v>
+                  <c:v>0.16125400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11099199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6569,15 +6443,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>283029</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>162832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
+      <xdr:colOff>587829</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>99332</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6600,14 +6474,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>55789</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6634,15 +6508,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>458107</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>202746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:colOff>153307</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>158296</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6664,15 +6538,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>430893</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>187324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>301625</xdr:rowOff>
+      <xdr:colOff>126093</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>72118</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6694,15 +6568,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>366486</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>56242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:colOff>61686</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>180066</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6725,50 +6599,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:H16" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="B3:H16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:H19" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="B3:H19"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Environment" dataDxfId="22"/>
-    <tableColumn id="2" name="Mean" dataDxfId="21"/>
-    <tableColumn id="3" name="Median" dataDxfId="20"/>
-    <tableColumn id="4" name="Min" dataDxfId="19"/>
-    <tableColumn id="5" name="Max" dataDxfId="18"/>
-    <tableColumn id="6" name="STD" dataDxfId="17"/>
-    <tableColumn id="7" name="Geomean" dataDxfId="16"/>
+    <tableColumn id="1" name="Environment" dataDxfId="12"/>
+    <tableColumn id="2" name="Mean" dataDxfId="11"/>
+    <tableColumn id="3" name="Median" dataDxfId="10"/>
+    <tableColumn id="4" name="Min" dataDxfId="9"/>
+    <tableColumn id="5" name="Max" dataDxfId="8"/>
+    <tableColumn id="6" name="STD" dataDxfId="7"/>
+    <tableColumn id="7" name="Geomean" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="K16:L21" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="K16:L21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="K20:L26" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="K20:L26"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Environment" dataDxfId="11"/>
-    <tableColumn id="2" name="Mean" dataDxfId="10"/>
+    <tableColumn id="1" name="Environment" dataDxfId="20"/>
+    <tableColumn id="2" name="Median(small)" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:H16" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8">
-  <autoFilter ref="B3:H16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:H19" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17">
+  <autoFilter ref="B3:H19"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Environment"/>
-    <tableColumn id="2" name="Mean" dataDxfId="6"/>
-    <tableColumn id="3" name="Median" dataDxfId="5"/>
-    <tableColumn id="4" name="Min" dataDxfId="4"/>
-    <tableColumn id="5" name="Max" dataDxfId="3"/>
-    <tableColumn id="6" name="STD" dataDxfId="2"/>
-    <tableColumn id="7" name="Geomean" dataDxfId="1"/>
+    <tableColumn id="2" name="Mean" dataDxfId="5"/>
+    <tableColumn id="3" name="Median" dataDxfId="4"/>
+    <tableColumn id="4" name="Min" dataDxfId="3"/>
+    <tableColumn id="5" name="Max" dataDxfId="2"/>
+    <tableColumn id="6" name="STD" dataDxfId="1"/>
+    <tableColumn id="7" name="Geomean" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:J5" totalsRowShown="0" headerRowCellStyle="Warning Text" dataCellStyle="Warning Text">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:J5" totalsRowShown="0">
   <autoFilter ref="B3:J5"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Environment" dataCellStyle="Normal"/>
@@ -6779,7 +6653,7 @@
     <tableColumn id="6" name="Min" dataCellStyle="Normal"/>
     <tableColumn id="7" name="Max" dataCellStyle="Normal"/>
     <tableColumn id="8" name="STD" dataCellStyle="Normal"/>
-    <tableColumn id="9" name="Time to initially load PMML" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="9" name="Time to initially load PMML" dataDxfId="15" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7048,31 +6922,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L36"/>
+  <dimension ref="B2:L43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="27.1796875" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" customWidth="1"/>
-    <col min="8" max="8" width="12.36328125" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" customWidth="1"/>
     <col min="11" max="11" width="25.81640625" customWidth="1"/>
     <col min="12" max="12" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>21</v>
+      <c r="L2" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -7097,431 +6974,510 @@
       <c r="H3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0.158634</v>
+      <c r="K3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="17">
+        <v>0.15218100000000001</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>4.8806000000000002E-2</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4.2082000000000001E-2</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3.7590999999999999E-2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>9.0810169999999992</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.21292900000000001</v>
-      </c>
-      <c r="H4" s="3">
-        <v>4.2885E-2</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>23</v>
+      <c r="C4" s="16">
+        <v>4.2949000000000001E-2</v>
+      </c>
+      <c r="D4" s="16">
+        <v>4.2001999999999998E-2</v>
+      </c>
+      <c r="E4" s="16">
+        <v>3.7976999999999997E-2</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0.11600100000000001</v>
+      </c>
+      <c r="G4" s="16">
+        <v>4.6550000000000003E-3</v>
+      </c>
+      <c r="H4" s="16">
+        <v>4.2762000000000001E-2</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="L4" s="19">
-        <v>0.105172</v>
+        <v>0.10856300000000001</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13">
-        <v>4.7701E-2</v>
-      </c>
-      <c r="D5" s="13">
-        <v>4.6786000000000001E-2</v>
-      </c>
-      <c r="E5" s="13">
-        <v>4.1820999999999997E-2</v>
-      </c>
-      <c r="F5" s="13">
-        <v>7.7232999999999996E-2</v>
-      </c>
-      <c r="G5" s="13">
-        <v>3.4399999999999999E-3</v>
-      </c>
-      <c r="H5" s="13">
-        <v>4.7586999999999997E-2</v>
-      </c>
-      <c r="K5" s="12" t="s">
+      <c r="C5" s="16">
+        <v>5.0445999999999998E-2</v>
+      </c>
+      <c r="D5" s="16">
+        <v>4.8006E-2</v>
+      </c>
+      <c r="E5" s="16">
+        <v>4.1999000000000002E-2</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.62999300000000003</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1.6285000000000001E-2</v>
+      </c>
+      <c r="H5" s="16">
+        <v>4.9676999999999999E-2</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="8">
-        <v>4.8806000000000002E-2</v>
+      <c r="L5" s="19">
+        <v>8.0030000000000004E-2</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
-        <v>8.6902999999999994E-2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>8.5435999999999998E-2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>7.5657000000000002E-2</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.13239799999999999</v>
-      </c>
-      <c r="G6" s="3">
-        <v>6.0410000000000004E-3</v>
-      </c>
-      <c r="H6" s="3">
-        <v>8.6707000000000006E-2</v>
+      <c r="C6" s="16">
+        <v>8.7039000000000005E-2</v>
+      </c>
+      <c r="D6" s="16">
+        <v>8.6969000000000005E-2</v>
+      </c>
+      <c r="E6" s="16">
+        <v>7.5004000000000001E-2</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.223885</v>
+      </c>
+      <c r="G6" s="16">
+        <v>5.6249999999999998E-3</v>
+      </c>
+      <c r="H6" s="16">
+        <v>8.6898000000000003E-2</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="19">
-        <v>4.4119999999999999E-2</v>
+        <v>41</v>
+      </c>
+      <c r="L6" s="17">
+        <v>5.7003999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="20" t="s">
-        <v>3</v>
+      <c r="B7" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="C7" s="18">
-        <v>0.105172</v>
+        <v>0.34061000000000002</v>
       </c>
       <c r="D7" s="18">
-        <v>0.10445699999999999</v>
+        <v>5.7003999999999999E-2</v>
       </c>
       <c r="E7" s="18">
-        <v>9.7392999999999993E-2</v>
+        <v>4.3996E-2</v>
       </c>
       <c r="F7" s="18">
-        <v>0.29275899999999999</v>
+        <v>21.030128000000001</v>
       </c>
       <c r="G7" s="18">
-        <v>5.7130000000000002E-3</v>
+        <v>2.4178709999999999</v>
       </c>
       <c r="H7" s="18">
-        <v>0.10506500000000001</v>
+        <v>6.1740000000000003E-2</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="17">
+        <v>4.2001999999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="20" t="s">
-        <v>4</v>
+      <c r="B8" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="C8" s="18">
-        <v>0.11899800000000001</v>
+        <v>0.385907</v>
       </c>
       <c r="D8" s="18">
-        <v>0.11763800000000001</v>
+        <v>6.4999000000000001E-2</v>
       </c>
       <c r="E8" s="18">
-        <v>0.109084</v>
+        <v>5.5003000000000003E-2</v>
       </c>
       <c r="F8" s="18">
-        <v>1.127453</v>
+        <v>21.024584999999998</v>
       </c>
       <c r="G8" s="18">
-        <v>2.3424E-2</v>
+        <v>2.5460069999999999</v>
       </c>
       <c r="H8" s="18">
-        <v>0.11849899999999999</v>
+        <v>7.4229000000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="20" t="s">
-        <v>5</v>
+      <c r="B9" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="C9" s="18">
-        <v>0.29100100000000001</v>
+        <v>0.50469399999999998</v>
       </c>
       <c r="D9" s="18">
-        <v>0.28644700000000001</v>
+        <v>0.104528</v>
       </c>
       <c r="E9" s="18">
-        <v>0.222668</v>
+        <v>8.7998000000000007E-2</v>
       </c>
       <c r="F9" s="18">
-        <v>3.3146249999999999</v>
+        <v>21.038138</v>
       </c>
       <c r="G9" s="18">
-        <v>9.9017999999999995E-2</v>
+        <v>2.853939</v>
       </c>
       <c r="H9" s="18">
-        <v>0.28794999999999998</v>
+        <v>0.11805300000000001</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.158634</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.140623</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.11374099999999999</v>
-      </c>
-      <c r="F10" s="3">
-        <v>9.1836339999999996</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.31654100000000002</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.14360700000000001</v>
+      <c r="B10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.10878</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.10856300000000001</v>
+      </c>
+      <c r="E10" s="16">
+        <v>9.7118999999999997E-2</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.13725000000000001</v>
+      </c>
+      <c r="G10" s="16">
+        <v>3.8630000000000001E-3</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0.10871400000000001</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0.61958500000000005</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0.60896600000000001</v>
-      </c>
-      <c r="E11" s="13">
-        <v>0.51731700000000003</v>
-      </c>
-      <c r="F11" s="13">
-        <v>9.6254519999999992</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0.20685400000000001</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0.61423399999999995</v>
+      <c r="B11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.12178600000000001</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.12120400000000001</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.109935</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.164997</v>
+      </c>
+      <c r="G11" s="16">
+        <v>4.8009999999999997E-3</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0.121696</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2.2265899999999998</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2.1928459999999999</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1.9610449999999999</v>
-      </c>
-      <c r="F12" s="3">
-        <v>11.078213999999999</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.244674</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2.219506</v>
+      <c r="B12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0.281252</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.27936299999999997</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.23200799999999999</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0.51411300000000004</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1.4132E-2</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0.28095199999999998</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="20" t="s">
-        <v>10</v>
+      <c r="B13" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C13" s="18">
-        <v>4.4119999999999999E-2</v>
+        <v>0.15413399999999999</v>
       </c>
       <c r="D13" s="18">
-        <v>4.2173000000000002E-2</v>
+        <v>0.15218100000000001</v>
       </c>
       <c r="E13" s="18">
-        <v>3.7975000000000002E-2</v>
+        <v>0.13499700000000001</v>
       </c>
       <c r="F13" s="18">
-        <v>1.069502</v>
+        <v>0.30574400000000002</v>
       </c>
       <c r="G13" s="18">
-        <v>3.2537000000000003E-2</v>
+        <v>1.2478E-2</v>
       </c>
       <c r="H13" s="18">
-        <v>4.3125999999999998E-2</v>
+        <v>0.153726</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="20" t="s">
-        <v>9</v>
+      <c r="B14" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="18">
-        <v>4.4004000000000001E-2</v>
+        <v>0.575874</v>
       </c>
       <c r="D14" s="18">
-        <v>4.2999000000000002E-2</v>
+        <v>0.56564000000000003</v>
       </c>
       <c r="E14" s="18">
-        <v>3.7837000000000003E-2</v>
+        <v>0.498002</v>
       </c>
       <c r="F14" s="18">
-        <v>7.1177000000000004E-2</v>
+        <v>11.037523999999999</v>
       </c>
       <c r="G14" s="18">
-        <v>3.5130000000000001E-3</v>
+        <v>0.23688200000000001</v>
       </c>
       <c r="H14" s="18">
-        <v>4.3871E-2</v>
+        <v>0.57037199999999999</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="18">
+        <v>2.096225</v>
+      </c>
+      <c r="D15" s="18">
+        <v>2.0016400000000001</v>
+      </c>
+      <c r="E15" s="18">
+        <v>1.91022</v>
+      </c>
+      <c r="F15" s="18">
+        <v>21.026658000000001</v>
+      </c>
+      <c r="G15" s="18">
+        <v>1.3423780000000001</v>
+      </c>
+      <c r="H15" s="18">
+        <v>2.0244740000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0.39494299999999999</v>
+      </c>
+      <c r="D16" s="16">
+        <v>8.0030000000000004E-2</v>
+      </c>
+      <c r="E16" s="16">
+        <v>5.4028E-2</v>
+      </c>
+      <c r="F16" s="16">
+        <v>21.031117999999999</v>
+      </c>
+      <c r="G16" s="16">
+        <v>2.5438879999999999</v>
+      </c>
+      <c r="H16" s="16">
+        <v>8.6721999999999994E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0.90369100000000002</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0.514764</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0.47475200000000001</v>
+      </c>
+      <c r="F17" s="16">
+        <v>21.033142999999999</v>
+      </c>
+      <c r="G17" s="16">
+        <v>2.762991</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0.55729899999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="13">
-        <v>4.4301E-2</v>
-      </c>
-      <c r="D15" s="13">
-        <v>4.3175999999999999E-2</v>
-      </c>
-      <c r="E15" s="13">
-        <v>3.8545000000000003E-2</v>
-      </c>
-      <c r="F15" s="13">
-        <v>8.4065000000000001E-2</v>
-      </c>
-      <c r="G15" s="13">
-        <v>3.7420000000000001E-3</v>
-      </c>
-      <c r="H15" s="13">
-        <v>4.4162E-2</v>
+      <c r="C18" s="18">
+        <v>0.77480099999999996</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0.47325400000000001</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0.42367300000000002</v>
+      </c>
+      <c r="F18" s="18">
+        <v>21.018094999999999</v>
+      </c>
+      <c r="G18" s="18">
+        <v>2.4546770000000002</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0.50352699999999995</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="11" t="s">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="13">
-        <v>4.4685000000000002E-2</v>
-      </c>
-      <c r="D16" s="13">
-        <v>4.3367000000000003E-2</v>
-      </c>
-      <c r="E16" s="13">
-        <v>3.9225999999999997E-2</v>
-      </c>
-      <c r="F16" s="13">
-        <v>8.5969000000000004E-2</v>
-      </c>
-      <c r="G16" s="13">
-        <v>4.0020000000000003E-3</v>
-      </c>
-      <c r="H16" s="13">
-        <v>4.4525000000000002E-2</v>
-      </c>
-      <c r="K16" s="4" t="s">
+      <c r="C19" s="18">
+        <v>4.2581629999999997</v>
+      </c>
+      <c r="D19" s="18">
+        <v>3.8856799999999998</v>
+      </c>
+      <c r="E19" s="18">
+        <v>3.7561399999999998</v>
+      </c>
+      <c r="F19" s="18">
+        <v>21.029205000000001</v>
+      </c>
+      <c r="G19" s="18">
+        <v>2.402015</v>
+      </c>
+      <c r="H19" s="18">
+        <v>4.0458970000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>14</v>
+      <c r="L20" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="17" spans="11:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="K17" s="12" t="s">
+    <row r="21" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="K21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="16">
+        <v>0.56564000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="18">
+        <v>0.514764</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0.47325400000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="15">
-        <v>0.61958500000000005</v>
+      <c r="L24" s="12">
+        <v>0.12120400000000001</v>
       </c>
     </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K18" s="21" t="s">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K25" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" s="24">
+        <v>6.4999000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="22">
-        <v>0.11899800000000001</v>
+      <c r="L26" s="12">
+        <v>4.8006E-2</v>
       </c>
     </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K19" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="15">
-        <v>4.7701E-2</v>
+    <row r="38" spans="11:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K20" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" s="22">
-        <v>4.4301E-2</v>
+    <row r="39" spans="11:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="K39" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L39" s="25">
+        <v>3.8856799999999998</v>
       </c>
     </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K21" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="17">
-        <v>4.4004000000000001E-2</v>
+    <row r="40" spans="11:12" x14ac:dyDescent="0.35">
+      <c r="K40" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" s="19">
+        <v>2.0016400000000001</v>
       </c>
     </row>
-    <row r="32" spans="11:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="K32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>14</v>
+    <row r="41" spans="11:12" x14ac:dyDescent="0.35">
+      <c r="K41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" s="17">
+        <v>0.27936299999999997</v>
       </c>
     </row>
-    <row r="33" spans="11:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="K33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L33" s="8">
-        <v>2.2265899999999998</v>
+    <row r="42" spans="11:12" x14ac:dyDescent="0.35">
+      <c r="K42" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L42" s="19">
+        <v>0.104528</v>
       </c>
     </row>
-    <row r="34" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K34" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="L34" s="19">
-        <v>0.29100100000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K35" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L35" s="8">
-        <v>8.6902999999999994E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K36" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="L36" s="25">
-        <v>4.4685000000000002E-2</v>
+    <row r="43" spans="11:12" x14ac:dyDescent="0.35">
+      <c r="K43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="17">
+        <v>8.6969000000000005E-2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L33:L36">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B30FC34E-9FE1-4158-BA1C-9377BF34CE8A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7529,32 +7485,15 @@
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B30FC34E-9FE1-4158-BA1C-9377BF34CE8A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>L33:L36</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K36"/>
+  <dimension ref="B2:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7564,456 +7503,543 @@
     <col min="4" max="4" width="11.453125" customWidth="1"/>
     <col min="8" max="8" width="12.453125" customWidth="1"/>
     <col min="10" max="10" width="22.54296875" customWidth="1"/>
-    <col min="11" max="11" width="11.1796875" customWidth="1"/>
+    <col min="11" max="11" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="23" t="s">
-        <v>28</v>
+      <c r="B2" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>14</v>
+      <c r="K3" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13">
-        <v>4.1606999999999998E-2</v>
-      </c>
-      <c r="D4" s="13">
-        <v>4.1093999999999999E-2</v>
-      </c>
-      <c r="E4" s="13">
-        <v>3.7284999999999999E-2</v>
-      </c>
-      <c r="F4" s="13">
-        <v>6.7235000000000003E-2</v>
-      </c>
-      <c r="G4" s="13">
-        <v>2.2750000000000001E-3</v>
-      </c>
-      <c r="H4" s="13">
-        <v>4.1549000000000003E-2</v>
+      <c r="C4" s="16">
+        <v>4.2924999999999998E-2</v>
+      </c>
+      <c r="D4" s="16">
+        <v>4.2979000000000003E-2</v>
+      </c>
+      <c r="E4" s="16">
+        <v>3.7990000000000003E-2</v>
+      </c>
+      <c r="F4" s="16">
+        <v>7.4997999999999995E-2</v>
+      </c>
+      <c r="G4" s="16">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="H4" s="16">
+        <v>4.2825000000000002E-2</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="14">
-        <v>0.70983200000000002</v>
+      <c r="J4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="17">
+        <v>0.33490399999999998</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13">
-        <v>4.9299000000000003E-2</v>
-      </c>
-      <c r="D5" s="13">
-        <v>4.7960000000000003E-2</v>
-      </c>
-      <c r="E5" s="13">
-        <v>4.2521000000000003E-2</v>
-      </c>
-      <c r="F5" s="13">
-        <v>9.5260999999999998E-2</v>
-      </c>
-      <c r="G5" s="13">
-        <v>5.1939999999999998E-3</v>
-      </c>
-      <c r="H5" s="13">
-        <v>4.9067E-2</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0.10483199999999999</v>
+      <c r="C5" s="16">
+        <v>4.7036000000000001E-2</v>
+      </c>
+      <c r="D5" s="16">
+        <v>4.6996999999999997E-2</v>
+      </c>
+      <c r="E5" s="16">
+        <v>4.1995999999999999E-2</v>
+      </c>
+      <c r="F5" s="16">
+        <v>8.4023E-2</v>
+      </c>
+      <c r="G5" s="16">
+        <v>2.689E-3</v>
+      </c>
+      <c r="H5" s="16">
+        <v>4.6965E-2</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0.10803500000000001</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="13">
-        <v>0.35960599999999998</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0.35716999999999999</v>
-      </c>
-      <c r="E6" s="13">
-        <v>8.2156999999999994E-2</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0.56401000000000001</v>
-      </c>
-      <c r="G6" s="13">
-        <v>3.3498E-2</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0.357483</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="19">
-        <v>4.2598999999999998E-2</v>
+      <c r="C6" s="16">
+        <v>0.16145599999999999</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.16125400000000001</v>
+      </c>
+      <c r="E6" s="16">
+        <v>9.0997999999999996E-2</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.19398000000000001</v>
+      </c>
+      <c r="G6" s="16">
+        <v>6.6340000000000001E-3</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0.16131799999999999</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="17">
+        <v>7.8442999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.10483199999999999</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.104301</v>
-      </c>
-      <c r="E7" s="3">
-        <v>9.7037999999999999E-2</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.19352</v>
-      </c>
-      <c r="G7" s="3">
-        <v>4.4390000000000002E-3</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.10474799999999999</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="14">
-        <v>4.1606999999999998E-2</v>
+      <c r="B7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.46770400000000001</v>
+      </c>
+      <c r="D7" s="18">
+        <v>5.2540000000000003E-2</v>
+      </c>
+      <c r="E7" s="18">
+        <v>4.3687999999999998E-2</v>
+      </c>
+      <c r="F7" s="18">
+        <v>21.012498000000001</v>
+      </c>
+      <c r="G7" s="18">
+        <v>2.871912</v>
+      </c>
+      <c r="H7" s="18">
+        <v>6.2449999999999999E-2</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="19">
+        <v>5.2540000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="21" t="s">
-        <v>4</v>
+      <c r="B8" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="C8" s="18">
-        <v>0.155227</v>
+        <v>0.29926700000000001</v>
       </c>
       <c r="D8" s="18">
-        <v>0.15181700000000001</v>
+        <v>6.4864000000000005E-2</v>
       </c>
       <c r="E8" s="18">
-        <v>0.13083800000000001</v>
+        <v>5.4729E-2</v>
       </c>
       <c r="F8" s="18">
-        <v>0.25602200000000003</v>
+        <v>21.010712000000002</v>
       </c>
       <c r="G8" s="18">
-        <v>1.4217E-2</v>
+        <v>2.1840459999999999</v>
       </c>
       <c r="H8" s="18">
-        <v>0.15462699999999999</v>
+        <v>7.1418999999999996E-2</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="17">
+        <v>4.2979000000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1.503034</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1.4879230000000001</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.28085399999999999</v>
-      </c>
-      <c r="F9" s="3">
-        <v>10.577349999999999</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.22645899999999999</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1.496057</v>
+      <c r="B9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0.41389700000000001</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0.11099199999999999</v>
+      </c>
+      <c r="E9" s="18">
+        <v>8.9000999999999997E-2</v>
+      </c>
+      <c r="F9" s="18">
+        <v>21.017861</v>
+      </c>
+      <c r="G9" s="18">
+        <v>2.4541559999999998</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0.128356</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="13">
-        <v>0.70983200000000002</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0.67859800000000003</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0.24896199999999999</v>
-      </c>
-      <c r="F10" s="13">
-        <v>2.563609</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0.16241</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0.69634600000000002</v>
+        <v>3</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.108487</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.10803500000000001</v>
+      </c>
+      <c r="E10" s="16">
+        <v>9.7003000000000006E-2</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.156975</v>
+      </c>
+      <c r="G10" s="16">
+        <v>4.4279999999999996E-3</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0.108401</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="13">
-        <v>3.7734480000000001</v>
-      </c>
-      <c r="D11" s="13">
-        <v>3.7157429999999998</v>
-      </c>
-      <c r="E11" s="13">
-        <v>1.427711</v>
-      </c>
-      <c r="F11" s="13">
-        <v>12.715795</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0.38268099999999999</v>
-      </c>
-      <c r="H11" s="13">
-        <v>3.7604899999999999</v>
+      <c r="B11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.121853</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.12024700000000001</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.10999100000000001</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.36536000000000002</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1.3913E-2</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0.12139</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="13">
-        <v>13.874336</v>
-      </c>
-      <c r="D12" s="13">
-        <v>13.73827</v>
-      </c>
-      <c r="E12" s="13">
-        <v>7.0539440000000004</v>
-      </c>
-      <c r="F12" s="13">
-        <v>24.763058000000001</v>
-      </c>
-      <c r="G12" s="13">
-        <v>1.0495399999999999</v>
-      </c>
-      <c r="H12" s="13">
-        <v>13.84234</v>
+        <v>5</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0.73256500000000002</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.70960299999999998</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.597997</v>
+      </c>
+      <c r="F12" s="16">
+        <v>2.9636650000000002</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0.122826</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0.72721899999999995</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="21" t="s">
-        <v>10</v>
+      <c r="B13" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="C13" s="18">
-        <v>4.2598999999999998E-2</v>
+        <v>0.343393</v>
       </c>
       <c r="D13" s="18">
-        <v>4.1973999999999997E-2</v>
+        <v>0.33490399999999998</v>
       </c>
       <c r="E13" s="18">
-        <v>3.6986999999999999E-2</v>
+        <v>0.19008</v>
       </c>
       <c r="F13" s="18">
-        <v>1.0761130000000001</v>
+        <v>1.220677</v>
       </c>
       <c r="G13" s="18">
-        <v>2.3241000000000001E-2</v>
+        <v>7.5613E-2</v>
       </c>
       <c r="H13" s="18">
-        <v>4.2086999999999999E-2</v>
+        <v>0.33657300000000001</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B14" s="21" t="s">
-        <v>9</v>
+      <c r="B14" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="18">
-        <v>4.2291000000000002E-2</v>
+        <v>1.741303</v>
       </c>
       <c r="D14" s="18">
-        <v>4.1456E-2</v>
+        <v>1.7262599999999999</v>
       </c>
       <c r="E14" s="18">
-        <v>3.7005999999999997E-2</v>
+        <v>1.0691619999999999</v>
       </c>
       <c r="F14" s="18">
-        <v>1.067312</v>
+        <v>3.4696250000000002</v>
       </c>
       <c r="G14" s="18">
-        <v>2.3535E-2</v>
+        <v>0.17705299999999999</v>
       </c>
       <c r="H14" s="18">
-        <v>4.1722000000000002E-2</v>
+        <v>1.7336020000000001</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="13">
-        <v>4.3161999999999999E-2</v>
-      </c>
-      <c r="D15" s="13">
-        <v>4.2834999999999998E-2</v>
-      </c>
-      <c r="E15" s="13">
-        <v>3.7967000000000001E-2</v>
-      </c>
-      <c r="F15" s="13">
-        <v>0.26203399999999999</v>
-      </c>
-      <c r="G15" s="13">
-        <v>5.522E-3</v>
-      </c>
-      <c r="H15" s="13">
-        <v>4.3025000000000001E-2</v>
+      <c r="B15" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="18">
+        <v>6.3685219999999996</v>
+      </c>
+      <c r="D15" s="18">
+        <v>6.429964</v>
+      </c>
+      <c r="E15" s="18">
+        <v>2.9825819999999998</v>
+      </c>
+      <c r="F15" s="18">
+        <v>21.015763</v>
+      </c>
+      <c r="G15" s="18">
+        <v>2.0876359999999998</v>
+      </c>
+      <c r="H15" s="18">
+        <v>6.1415369999999996</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0.451714</v>
+      </c>
+      <c r="D16" s="16">
+        <v>7.8442999999999999E-2</v>
+      </c>
+      <c r="E16" s="16">
+        <v>5.3508E-2</v>
+      </c>
+      <c r="F16" s="16">
+        <v>21.016538000000001</v>
+      </c>
+      <c r="G16" s="16">
+        <v>2.7447050000000002</v>
+      </c>
+      <c r="H16" s="16">
+        <v>8.9168999999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="16">
+        <v>1.2090479999999999</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1.0467329999999999</v>
+      </c>
+      <c r="E17" s="16">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F17" s="16">
+        <v>21.032160000000001</v>
+      </c>
+      <c r="G17" s="16">
+        <v>2.4100929999999998</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0.65770300000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="18">
+        <v>1.243938</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1.041736</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0.43251899999999999</v>
+      </c>
+      <c r="F18" s="18">
+        <v>21.030657999999999</v>
+      </c>
+      <c r="G18" s="18">
+        <v>2.1977229999999999</v>
+      </c>
+      <c r="H18" s="18">
+        <v>1.0021519999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="3">
-        <v>4.3560000000000001E-2</v>
-      </c>
-      <c r="D16" s="3">
-        <v>4.3004000000000001E-2</v>
-      </c>
-      <c r="E16" s="3">
-        <v>3.8837000000000003E-2</v>
-      </c>
-      <c r="F16" s="3">
-        <v>8.7145E-2</v>
-      </c>
-      <c r="G16" s="3">
-        <v>3.2209999999999999E-3</v>
-      </c>
-      <c r="H16" s="3">
-        <v>4.3459999999999999E-2</v>
+      <c r="C19" s="18">
+        <v>10.94613</v>
+      </c>
+      <c r="D19" s="18">
+        <v>11.183159</v>
+      </c>
+      <c r="E19" s="18">
+        <v>6.6071210000000002</v>
+      </c>
+      <c r="F19" s="18">
+        <v>21.035475999999999</v>
+      </c>
+      <c r="G19" s="18">
+        <v>2.1756180000000001</v>
+      </c>
+      <c r="H19" s="18">
+        <v>10.76759</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="J17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J18" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="14">
-        <v>3.7734480000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="J19" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19" s="19">
-        <v>0.155227</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="J20" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="14">
-        <v>4.9299000000000003E-2</v>
+    <row r="20" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="J20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="17">
+        <v>1.7262599999999999</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="J21" s="21" t="s">
-        <v>9</v>
+      <c r="J21" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="K21" s="19">
-        <v>4.2291000000000002E-2</v>
+        <v>1.0467329999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="26" x14ac:dyDescent="0.35">
-      <c r="J22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="14">
-        <v>4.3161999999999999E-2</v>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="J22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="17">
+        <v>1.041736</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="J23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="19">
+        <v>0.12024700000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="J24" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="17">
+        <v>6.4864000000000005E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="J25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="19">
+        <v>4.6996999999999997E-2</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J32" s="4" t="s">
+      <c r="J32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K32" s="5" t="s">
-        <v>14</v>
+      <c r="K32" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="10:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="J33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="14">
-        <v>13.874336</v>
+      <c r="J33" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="25">
+        <v>11.183159</v>
       </c>
     </row>
     <row r="34" spans="10:11" x14ac:dyDescent="0.35">
-      <c r="J34" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="9">
-        <v>1.503034</v>
+      <c r="J34" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="19">
+        <v>6.429964</v>
       </c>
     </row>
     <row r="35" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J35" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K35" s="14">
-        <v>0.35960599999999998</v>
+        <v>22</v>
+      </c>
+      <c r="K35" s="17">
+        <v>0.70960299999999998</v>
       </c>
     </row>
-    <row r="36" spans="10:11" ht="26" x14ac:dyDescent="0.35">
-      <c r="J36" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="K36" s="10">
-        <v>4.3560000000000001E-2</v>
+    <row r="36" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J36" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" s="19">
+        <v>0.16125400000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11" x14ac:dyDescent="0.35">
+      <c r="J37" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K37" s="17">
+        <v>0.11099199999999999</v>
       </c>
     </row>
   </sheetData>
@@ -8029,7 +8055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -8044,7 +8070,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="13" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8059,10 +8085,10 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
         <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -8074,12 +8100,12 @@
         <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>1.671</v>
@@ -8102,13 +8128,13 @@
       <c r="I4">
         <v>2.0249999999999999</v>
       </c>
-      <c r="J4" s="26" t="s">
-        <v>34</v>
+      <c r="J4" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>9.9359999999999999</v>
@@ -8131,8 +8157,8 @@
       <c r="I5">
         <v>3.7130000000000001</v>
       </c>
-      <c r="J5" s="26" t="s">
-        <v>35</v>
+      <c r="J5" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarkResults/Benchmark_Results.xlsx
+++ b/benchmarkResults/Benchmark_Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   </cellStyles>
   <dxfs count="25">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -491,78 +491,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -757,6 +685,78 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6508,15 +6508,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>458107</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>202746</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>102961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>153307</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>158296</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6538,15 +6538,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>430893</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>187324</xdr:rowOff>
+      <xdr:colOff>447435</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>110482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>126093</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>72118</xdr:rowOff>
+      <xdr:colOff>142635</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6568,15 +6568,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>366486</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>56242</xdr:rowOff>
+      <xdr:colOff>384629</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>74385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>61686</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>180066</xdr:rowOff>
+      <xdr:colOff>79829</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>117929</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6599,43 +6599,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:H19" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:H19" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="B3:H19"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Environment" dataDxfId="12"/>
-    <tableColumn id="2" name="Mean" dataDxfId="11"/>
-    <tableColumn id="3" name="Median" dataDxfId="10"/>
-    <tableColumn id="4" name="Min" dataDxfId="9"/>
-    <tableColumn id="5" name="Max" dataDxfId="8"/>
-    <tableColumn id="6" name="STD" dataDxfId="7"/>
-    <tableColumn id="7" name="Geomean" dataDxfId="6"/>
+    <tableColumn id="1" name="Environment" dataDxfId="22"/>
+    <tableColumn id="2" name="Mean" dataDxfId="21"/>
+    <tableColumn id="3" name="Median" dataDxfId="20"/>
+    <tableColumn id="4" name="Min" dataDxfId="19"/>
+    <tableColumn id="5" name="Max" dataDxfId="18"/>
+    <tableColumn id="6" name="STD" dataDxfId="17"/>
+    <tableColumn id="7" name="Geomean" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="K20:L26" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="K20:L26" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="K20:L26"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Environment" dataDxfId="20"/>
-    <tableColumn id="2" name="Median(small)" dataDxfId="19"/>
+    <tableColumn id="1" name="Environment" dataDxfId="11"/>
+    <tableColumn id="2" name="Median(small)" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:H19" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:H19" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8">
   <autoFilter ref="B3:H19"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Environment"/>
-    <tableColumn id="2" name="Mean" dataDxfId="5"/>
-    <tableColumn id="3" name="Median" dataDxfId="4"/>
-    <tableColumn id="4" name="Min" dataDxfId="3"/>
-    <tableColumn id="5" name="Max" dataDxfId="2"/>
-    <tableColumn id="6" name="STD" dataDxfId="1"/>
-    <tableColumn id="7" name="Geomean" dataDxfId="0"/>
+    <tableColumn id="2" name="Mean" dataDxfId="6"/>
+    <tableColumn id="3" name="Median" dataDxfId="5"/>
+    <tableColumn id="4" name="Min" dataDxfId="4"/>
+    <tableColumn id="5" name="Max" dataDxfId="3"/>
+    <tableColumn id="6" name="STD" dataDxfId="2"/>
+    <tableColumn id="7" name="Geomean" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6653,7 +6653,7 @@
     <tableColumn id="6" name="Min" dataCellStyle="Normal"/>
     <tableColumn id="7" name="Max" dataCellStyle="Normal"/>
     <tableColumn id="8" name="STD" dataCellStyle="Normal"/>
-    <tableColumn id="9" name="Time to initially load PMML" dataDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="9" name="Time to initially load PMML" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6924,7 +6924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="H25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -7492,16 +7492,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="7" width="9.6328125" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" customWidth="1"/>
     <col min="10" max="10" width="22.54296875" customWidth="1"/>
     <col min="11" max="11" width="13.36328125" customWidth="1"/>
   </cols>

--- a/benchmarkResults/Benchmark_Results.xlsx
+++ b/benchmarkResults/Benchmark_Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,12 +127,6 @@
     <t>Time to initially load PMML</t>
   </si>
   <si>
-    <t>12s</t>
-  </si>
-  <si>
-    <t>98s</t>
-  </si>
-  <si>
     <t>Python/AzureML: empty</t>
   </si>
   <si>
@@ -153,13 +147,20 @@
   <si>
     <t>Python/AzureML</t>
   </si>
+  <si>
+    <t>10s</t>
+  </si>
+  <si>
+    <t>115s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -402,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -465,14 +466,36 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="32">
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000"/>
+    </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -6599,43 +6622,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:H19" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:H19" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="B3:H19"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Environment" dataDxfId="22"/>
-    <tableColumn id="2" name="Mean" dataDxfId="21"/>
-    <tableColumn id="3" name="Median" dataDxfId="20"/>
-    <tableColumn id="4" name="Min" dataDxfId="19"/>
-    <tableColumn id="5" name="Max" dataDxfId="18"/>
-    <tableColumn id="6" name="STD" dataDxfId="17"/>
-    <tableColumn id="7" name="Geomean" dataDxfId="16"/>
+    <tableColumn id="1" name="Environment" dataDxfId="29"/>
+    <tableColumn id="2" name="Mean" dataDxfId="28"/>
+    <tableColumn id="3" name="Median" dataDxfId="27"/>
+    <tableColumn id="4" name="Min" dataDxfId="26"/>
+    <tableColumn id="5" name="Max" dataDxfId="25"/>
+    <tableColumn id="6" name="STD" dataDxfId="24"/>
+    <tableColumn id="7" name="Geomean" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="K20:L26" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="K20:L26" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="K20:L26"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Environment" dataDxfId="11"/>
-    <tableColumn id="2" name="Median(small)" dataDxfId="10"/>
+    <tableColumn id="1" name="Environment" dataDxfId="18"/>
+    <tableColumn id="2" name="Median(small)" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:H19" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:H19" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15">
   <autoFilter ref="B3:H19"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Environment"/>
-    <tableColumn id="2" name="Mean" dataDxfId="6"/>
-    <tableColumn id="3" name="Median" dataDxfId="5"/>
-    <tableColumn id="4" name="Min" dataDxfId="4"/>
-    <tableColumn id="5" name="Max" dataDxfId="3"/>
-    <tableColumn id="6" name="STD" dataDxfId="2"/>
-    <tableColumn id="7" name="Geomean" dataDxfId="1"/>
+    <tableColumn id="2" name="Mean" dataDxfId="13"/>
+    <tableColumn id="3" name="Median" dataDxfId="12"/>
+    <tableColumn id="4" name="Min" dataDxfId="11"/>
+    <tableColumn id="5" name="Max" dataDxfId="10"/>
+    <tableColumn id="6" name="STD" dataDxfId="9"/>
+    <tableColumn id="7" name="Geomean" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6646,14 +6669,14 @@
   <autoFilter ref="B3:J5"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Environment" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Mean" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Median" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="90%-Quantil" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="99%-Quantil" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Min" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="Max" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="STD" dataCellStyle="Normal"/>
-    <tableColumn id="9" name="Time to initially load PMML" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Mean" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Median" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="90%-Quantil" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="99%-Quantil" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Min" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="Max" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="8" name="STD" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="9" name="Time to initially load PMML" dataDxfId="1" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6924,8 +6947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="H25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6949,7 +6972,7 @@
         <v>13</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -7062,7 +7085,7 @@
         <v>8.6898000000000003E-2</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L6" s="17">
         <v>5.7003999999999999E-2</v>
@@ -7070,7 +7093,7 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" s="18">
         <v>0.34061000000000002</v>
@@ -7099,7 +7122,7 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="18">
         <v>0.385907</v>
@@ -7122,7 +7145,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="18">
         <v>0.50469399999999998</v>
@@ -7378,7 +7401,7 @@
         <v>13</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -7415,7 +7438,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="K25" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L25" s="24">
         <v>6.4999000000000001E-2</v>
@@ -7434,7 +7457,7 @@
         <v>13</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="11:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -7463,7 +7486,7 @@
     </row>
     <row r="42" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K42" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L42" s="19">
         <v>0.104528</v>
@@ -7492,7 +7515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
@@ -7540,7 +7563,7 @@
         <v>13</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -7633,7 +7656,7 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" s="18">
         <v>0.46770400000000001</v>
@@ -7654,7 +7677,7 @@
         <v>6.2449999999999999E-2</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K7" s="19">
         <v>5.2540000000000003E-2</v>
@@ -7662,7 +7685,7 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="18">
         <v>0.29926700000000001</v>
@@ -7691,7 +7714,7 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="18">
         <v>0.41389700000000001</v>
@@ -7945,7 +7968,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -7982,7 +8005,7 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="J24" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K24" s="17">
         <v>6.4864000000000005E-2</v>
@@ -8001,7 +8024,7 @@
         <v>13</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="10:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -8038,7 +8061,7 @@
     </row>
     <row r="37" spans="10:11" x14ac:dyDescent="0.35">
       <c r="J37" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K37" s="17">
         <v>0.11099199999999999</v>
@@ -8057,8 +8080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8109,58 +8132,58 @@
       <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="C4">
-        <v>1.671</v>
-      </c>
-      <c r="D4">
-        <v>1.4159999999999999</v>
-      </c>
-      <c r="E4">
-        <v>2.3660000000000001</v>
-      </c>
-      <c r="F4">
-        <v>5.3319999999999999</v>
-      </c>
-      <c r="G4">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="H4">
-        <v>60.83</v>
-      </c>
-      <c r="I4">
-        <v>2.0249999999999999</v>
+      <c r="C4" s="26">
+        <v>1.841</v>
+      </c>
+      <c r="D4" s="26">
+        <v>1.42</v>
+      </c>
+      <c r="E4" s="26">
+        <v>3.234</v>
+      </c>
+      <c r="F4" s="26">
+        <v>6.9550000000000001</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="H4" s="26">
+        <v>24.443999999999999</v>
+      </c>
+      <c r="I4" s="26">
+        <v>1.306</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="C5">
-        <v>9.9359999999999999</v>
-      </c>
-      <c r="D5">
-        <v>8.7309999999999999</v>
-      </c>
-      <c r="E5">
-        <v>13.285</v>
-      </c>
-      <c r="F5">
-        <v>23.347999999999999</v>
-      </c>
-      <c r="G5">
-        <v>6.4409999999999998</v>
-      </c>
-      <c r="H5">
-        <v>67.638999999999996</v>
-      </c>
-      <c r="I5">
-        <v>3.7130000000000001</v>
+      <c r="C5" s="26">
+        <v>13.077999999999999</v>
+      </c>
+      <c r="D5" s="26">
+        <v>12.170999999999999</v>
+      </c>
+      <c r="E5" s="26">
+        <v>18.052</v>
+      </c>
+      <c r="F5" s="26">
+        <v>31.387</v>
+      </c>
+      <c r="G5" s="26">
+        <v>7.0090000000000003</v>
+      </c>
+      <c r="H5" s="26">
+        <v>64.137</v>
+      </c>
+      <c r="I5" s="26">
+        <v>4.8289999999999997</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarkResults/Benchmark_Results.xlsx
+++ b/benchmarkResults/Benchmark_Results.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="49">
   <si>
     <t>Python/Flask: empty</t>
   </si>
@@ -153,6 +154,27 @@
   <si>
     <t>115s</t>
   </si>
+  <si>
+    <t>R/MSMLServer</t>
+  </si>
+  <si>
+    <t>R/MSMLServerRealtime</t>
+  </si>
+  <si>
+    <t>Sequential</t>
+  </si>
+  <si>
+    <t>Concurrent</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +182,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -466,36 +488,36 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
-    </dxf>
+  <dxfs count="48">
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="0.000"/>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -573,6 +595,54 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
       <font>
@@ -1182,6 +1252,1200 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Median of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" i="1" baseline="0"/>
+              <a:t>empty</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> model in seconds</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2693462379702537"/>
+          <c:y val="0.12078703703703704"/>
+          <c:w val="0.65138998250218727"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Median(empty)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$J$4:$J$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>R/OpenCPU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R/Plumber</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R/MS ML Server</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Python/AzureML</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Python/Flask</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$4:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.33490399999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10803500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8442999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2540000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2979000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-050B-4FF0-8310-4D5155F70850}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="505898776"/>
+        <c:axId val="505900088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="505898776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="505900088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="505900088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="505898776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Median of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="1" u="none" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>small</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> model in seconds</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-CH">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38097178477690291"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.56754221347331579"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Median(small)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$J$20:$J$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>R/OpenCPU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R/ MS ML Server</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R/MS ML Server Realtime</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R/Plumber</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Python/AzureML</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Python/Flask</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$20:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.7262599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0467329999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.041736</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12024700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4864000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6996999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-66D4-4342-A90A-67FCEA36743D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="506463896"/>
+        <c:axId val="506462256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="506463896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506462256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="506462256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506463896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Median of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="1" u="none" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>large</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> model in seconds</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-CH">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Median(large)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$J$33:$J$37</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>R/MS ML Server Realtime</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R/OpenCPU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R/Plumber</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Python/Flask</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Python/AzureML</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$33:$K$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11.183159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.429964</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70960299999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16125400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11099199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BDAF-4A22-A5C1-1DC0C8E4D6BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="497650168"/>
+        <c:axId val="497660336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="497650168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497660336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="497660336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497650168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1625,7 +2889,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1725,7 +2988,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1995,20 +3257,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Median of</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" i="1" baseline="0"/>
-              <a:t>empty</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> model in seconds</a:t>
+              <a:rPr lang="de-CH"/>
+              <a:t>Python/Flask</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2045,19 +3295,9 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.2693462379702537"/>
-          <c:y val="0.12078703703703704"/>
-          <c:w val="0.65138998250218727"/>
-          <c:h val="0.72088764946048411"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -2065,11 +3305,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$K$3</c:f>
+              <c:f>Sheet4!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Median(empty)</c:v>
+                  <c:v>Sequential</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2144,54 +3384,165 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$J$4:$J$8</c:f>
+              <c:f>Sheet4!$C$2:$E$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>R/OpenCPU</c:v>
+                  <c:v>empty</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>R/Plumber</c:v>
+                  <c:v>small</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>R/MS ML Server</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Python/AzureML</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Python/Flask</c:v>
+                  <c:v>large</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$K$4:$K$8</c:f>
+              <c:f>Sheet4!$C$3:$E$3</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.33490399999999998</c:v>
+                  <c:v>4.2001999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10803500000000001</c:v>
+                  <c:v>4.8006E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8442999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.2540000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.2979000000000003E-2</c:v>
+                  <c:v>8.6969000000000005E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-050B-4FF0-8310-4D5155F70850}"/>
+              <c16:uniqueId val="{00000000-2199-4048-B682-AF0DF7681958}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Concurrent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$C$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>empty</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>small</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>large</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.2979000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6996999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16125400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2199-4048-B682-AF0DF7681958}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2203,17 +3554,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="505898776"/>
-        <c:axId val="505900088"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="469726712"/>
+        <c:axId val="469727368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="505898776"/>
+        <c:axId val="469726712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2251,7 +3603,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505900088"/>
+        <c:crossAx val="469727368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2259,12 +3611,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="505900088"/>
+        <c:axId val="469727368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2279,7 +3631,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2310,7 +3662,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505898776"/>
+        <c:crossAx val="469726712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2322,6 +3674,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2393,26 +3777,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Median of </a:t>
+              <a:rPr lang="de-CH"/>
+              <a:t>Python/AzureML</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="1" u="none" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>small</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> model in seconds</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-CH">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2448,19 +3815,9 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.38097178477690291"/>
-          <c:y val="0.19486111111111112"/>
-          <c:w val="0.56754221347331579"/>
-          <c:h val="0.72088764946048411"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -2468,11 +3825,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$K$19</c:f>
+              <c:f>Sheet4!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Median(small)</c:v>
+                  <c:v>Sequential</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2547,60 +3904,165 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$J$20:$J$25</c:f>
+              <c:f>Sheet4!$C$18:$E$18</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>R/OpenCPU</c:v>
+                  <c:v>empty</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>R/ MS ML Server</c:v>
+                  <c:v>small</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>R/MS ML Server Realtime</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>R/Plumber</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Python/AzureML</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Python/Flask</c:v>
+                  <c:v>large</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$K$20:$K$25</c:f>
+              <c:f>Sheet4!$C$19:$E$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.7262599999999999</c:v>
+                  <c:v>5.7003999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0467329999999999</c:v>
+                  <c:v>6.4999000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.041736</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.12024700000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.4864000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.6996999999999997E-2</c:v>
+                  <c:v>0.104528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-66D4-4342-A90A-67FCEA36743D}"/>
+              <c16:uniqueId val="{00000000-ACC7-4A8E-B933-FE154995882C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Concurrent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$C$18:$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>empty</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>small</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>large</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$20:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.2540000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4864000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11099199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ACC7-4A8E-B933-FE154995882C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2612,17 +4074,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="506463896"/>
-        <c:axId val="506462256"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="463613168"/>
+        <c:axId val="463613496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="506463896"/>
+        <c:axId val="463613168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2660,7 +4123,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506462256"/>
+        <c:crossAx val="463613496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2668,12 +4131,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="506462256"/>
+        <c:axId val="463613496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2688,7 +4151,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2719,7 +4182,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506463896"/>
+        <c:crossAx val="463613168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2731,6 +4194,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2802,26 +4297,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Median of </a:t>
+              <a:rPr lang="de-CH"/>
+              <a:t>R/Plumber</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="1" u="none" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>large</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> model in seconds</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-CH">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2859,7 +4337,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -2867,11 +4345,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$K$32</c:f>
+              <c:f>Sheet4!$B$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Median(large)</c:v>
+                  <c:v>Sequential</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2946,54 +4424,165 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$J$33:$J$37</c:f>
+              <c:f>Sheet4!$C$34:$E$34</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>R/MS ML Server Realtime</c:v>
+                  <c:v>empty</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>R/OpenCPU</c:v>
+                  <c:v>small</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>R/Plumber</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Python/Flask</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Python/AzureML</c:v>
+                  <c:v>large</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$K$33:$K$37</c:f>
+              <c:f>Sheet4!$C$35:$E$35</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>11.183159</c:v>
+                  <c:v>0.10856300000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.429964</c:v>
+                  <c:v>0.12120400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70960299999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.16125400000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.11099199999999999</c:v>
+                  <c:v>0.27936299999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BDAF-4A22-A5C1-1DC0C8E4D6BC}"/>
+              <c16:uniqueId val="{00000000-A71C-4131-AF0E-50B55C850715}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Concurrent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$C$34:$E$34</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>empty</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>small</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>large</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$36:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.10803500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12024700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70960299999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A71C-4131-AF0E-50B55C850715}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3005,17 +4594,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="497650168"/>
-        <c:axId val="497660336"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="619002656"/>
+        <c:axId val="619003312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="497650168"/>
+        <c:axId val="619002656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3053,7 +4643,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497660336"/>
+        <c:crossAx val="619003312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3061,12 +4651,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="497660336"/>
+        <c:axId val="619003312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3081,7 +4671,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3112,7 +4702,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497650168"/>
+        <c:crossAx val="619002656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3124,6 +4714,1579 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>R/OpenCPU</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$C$51:$E$51</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>empty</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>small</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>large</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$52:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.15218100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56564000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0016400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DC8-4BC7-9E7B-DA3D1E6CFB93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Concurrent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$C$51:$E$51</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>empty</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>small</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>large</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$53:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.33490399999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7262599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.429964</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5DC8-4BC7-9E7B-DA3D1E6CFB93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="680630616"/>
+        <c:axId val="680635864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="680630616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="680635864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="680635864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="680630616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>R/ MS ML Server</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$C$67:$D$67</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>empty</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>small</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$68:$D$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.0030000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.514764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A6FD-4E84-8879-DDA358104EAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Concurrent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$C$67:$D$67</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>empty</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>small</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$69:$D$69</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.8442999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0467329999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A6FD-4E84-8879-DDA358104EAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="626835888"/>
+        <c:axId val="626838512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="626835888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626838512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="626838512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626835888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-CH"/>
+              <a:t>R/MS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-CH" baseline="0"/>
+              <a:t> ML Server Realtime</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-CH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$C$84:$D$84</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>small</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>large</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$85:$D$85</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.47325400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8856799999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD4B-42E4-87DE-F6ABD79D92DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Concurrent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$C$84:$D$84</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>small</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>large</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$86:$D$86</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.041736</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.183159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BD4B-42E4-87DE-F6ABD79D92DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="462216632"/>
+        <c:axId val="462216960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="462216632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462216960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="462216960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462216632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3162,6 +6325,126 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3401,6 +6684,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -3906,7 +7309,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4411,7 +7814,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4916,7 +8319,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5421,7 +8824,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5926,7 +9329,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6399,6 +9802,3024 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6530,6 +12951,191 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1006475</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1006475</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>593725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>974725</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -6622,33 +13228,127 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:H19" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:H19" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="B3:H19"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Environment" dataDxfId="29"/>
-    <tableColumn id="2" name="Mean" dataDxfId="28"/>
-    <tableColumn id="3" name="Median" dataDxfId="27"/>
-    <tableColumn id="4" name="Min" dataDxfId="26"/>
-    <tableColumn id="5" name="Max" dataDxfId="25"/>
-    <tableColumn id="6" name="STD" dataDxfId="24"/>
-    <tableColumn id="7" name="Geomean" dataDxfId="23"/>
+    <tableColumn id="1" name="Environment" dataDxfId="45"/>
+    <tableColumn id="2" name="Mean" dataDxfId="44"/>
+    <tableColumn id="3" name="Median" dataDxfId="43"/>
+    <tableColumn id="4" name="Min" dataDxfId="42"/>
+    <tableColumn id="5" name="Max" dataDxfId="41"/>
+    <tableColumn id="6" name="STD" dataDxfId="40"/>
+    <tableColumn id="7" name="Geomean" dataDxfId="39"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:J5" totalsRowShown="0">
+  <autoFilter ref="B3:J5"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Environment" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Mean" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Median" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="90%-Quantil" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="5" name="99%-Quantil" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="6" name="Min" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="Max" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="8" name="STD" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="9" name="Time to initially load PMML" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="K20:L26" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="K20:L26" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
   <autoFilter ref="K20:L26"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Environment" dataDxfId="18"/>
-    <tableColumn id="2" name="Median(small)" dataDxfId="17"/>
+    <tableColumn id="1" name="Environment" dataDxfId="34"/>
+    <tableColumn id="2" name="Median(small)" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="B2:E4" totalsRowShown="0">
+  <autoFilter ref="B2:E4"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Python/Flask"/>
+    <tableColumn id="2" name="empty" dataDxfId="32"/>
+    <tableColumn id="3" name="small" dataDxfId="31"/>
+    <tableColumn id="4" name="large" dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="B18:E20" totalsRowShown="0">
+  <autoFilter ref="B18:E20"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Python/AzureML"/>
+    <tableColumn id="2" name="empty" dataDxfId="29"/>
+    <tableColumn id="3" name="small" dataDxfId="28"/>
+    <tableColumn id="4" name="large" dataDxfId="27"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="B34:E36" totalsRowShown="0">
+  <autoFilter ref="B34:E36"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="R/Plumber"/>
+    <tableColumn id="2" name="empty" dataDxfId="26"/>
+    <tableColumn id="3" name="small" dataDxfId="25"/>
+    <tableColumn id="4" name="large" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="B51:E53" totalsRowShown="0">
+  <autoFilter ref="B51:E53"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="R/OpenCPU"/>
+    <tableColumn id="2" name="empty" dataDxfId="23"/>
+    <tableColumn id="3" name="small" dataDxfId="22"/>
+    <tableColumn id="4" name="large" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="B67:D69" totalsRowShown="0">
+  <autoFilter ref="B67:D69"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="R/MSMLServer"/>
+    <tableColumn id="2" name="empty" dataDxfId="20"/>
+    <tableColumn id="3" name="small" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table17" displayName="Table17" ref="B84:D86" totalsRowShown="0">
+  <autoFilter ref="B84:D86"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="R/MSMLServerRealtime"/>
+    <tableColumn id="2" name="small" dataDxfId="18"/>
+    <tableColumn id="3" name="large" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:H19" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15">
   <autoFilter ref="B3:H19"/>
   <tableColumns count="7">
@@ -6659,24 +13359,6 @@
     <tableColumn id="5" name="Max" dataDxfId="10"/>
     <tableColumn id="6" name="STD" dataDxfId="9"/>
     <tableColumn id="7" name="Geomean" dataDxfId="8"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:J5" totalsRowShown="0">
-  <autoFilter ref="B3:J5"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="Environment" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Mean" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Median" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="90%-Quantil" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="5" name="99%-Quantil" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="6" name="Min" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="Max" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="8" name="STD" dataDxfId="0" dataCellStyle="Normal"/>
-    <tableColumn id="9" name="Time to initially load PMML" dataDxfId="1" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6947,8 +13629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7357,9 +14039,6 @@
       <c r="C18" s="18">
         <v>0.77480099999999996</v>
       </c>
-      <c r="D18" s="18">
-        <v>0.47325400000000001</v>
-      </c>
       <c r="E18" s="18">
         <v>0.42367300000000002</v>
       </c>
@@ -7379,9 +14058,6 @@
       </c>
       <c r="C19" s="18">
         <v>4.2581629999999997</v>
-      </c>
-      <c r="D19" s="18">
-        <v>3.8856799999999998</v>
       </c>
       <c r="E19" s="18">
         <v>3.7561399999999998</v>
@@ -7513,10 +14189,275 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J99" sqref="J99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="26.6328125" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="28.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="26">
+        <v>4.2001999999999998E-2</v>
+      </c>
+      <c r="D3" s="26">
+        <v>4.8006E-2</v>
+      </c>
+      <c r="E3" s="26">
+        <v>8.6969000000000005E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="26">
+        <v>4.2979000000000003E-2</v>
+      </c>
+      <c r="D4" s="26">
+        <v>4.6996999999999997E-2</v>
+      </c>
+      <c r="E4" s="26">
+        <v>0.16125400000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="26">
+        <v>5.7003999999999999E-2</v>
+      </c>
+      <c r="D19" s="26">
+        <v>6.4999000000000001E-2</v>
+      </c>
+      <c r="E19" s="26">
+        <v>0.104528</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="26">
+        <v>5.2540000000000003E-2</v>
+      </c>
+      <c r="D20" s="26">
+        <v>6.4864000000000005E-2</v>
+      </c>
+      <c r="E20" s="26">
+        <v>0.11099199999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="26">
+        <v>0.10856300000000001</v>
+      </c>
+      <c r="D35" s="26">
+        <v>0.12120400000000001</v>
+      </c>
+      <c r="E35" s="26">
+        <v>0.27936299999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="26">
+        <v>0.10803500000000001</v>
+      </c>
+      <c r="D36" s="26">
+        <v>0.12024700000000001</v>
+      </c>
+      <c r="E36" s="26">
+        <v>0.70960299999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="26">
+        <v>0.15218100000000001</v>
+      </c>
+      <c r="D52" s="26">
+        <v>0.56564000000000003</v>
+      </c>
+      <c r="E52" s="26">
+        <v>2.0016400000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="26">
+        <v>0.33490399999999998</v>
+      </c>
+      <c r="D53" s="26">
+        <v>1.7262599999999999</v>
+      </c>
+      <c r="E53" s="26">
+        <v>6.429964</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="26">
+        <v>8.0030000000000004E-2</v>
+      </c>
+      <c r="D68" s="26">
+        <v>0.514764</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="26">
+        <v>7.8442999999999999E-2</v>
+      </c>
+      <c r="D69" s="26">
+        <v>1.0467329999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" t="s">
+        <v>47</v>
+      </c>
+      <c r="D84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" s="26">
+        <v>0.47325400000000001</v>
+      </c>
+      <c r="D85" s="26">
+        <v>3.8856799999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" s="26">
+        <v>1.041736</v>
+      </c>
+      <c r="D86" s="26">
+        <v>11.183159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="6">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8076,11 +15017,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
